--- a/src/main/resources/templates/api-spec-template-simple.xlsx
+++ b/src/main/resources/templates/api-spec-template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00814D51-9C58-47F0-987B-73A9475C53D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30929E9C-B914-41BC-BE37-5DE05639FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -359,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${requestParameter.level}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${requestParameter.name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,11 +387,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${responseParameter.level}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.levelValue}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.levelValue}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,23 +545,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +886,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -893,66 +899,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
@@ -962,13 +968,13 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
@@ -1012,13 +1018,13 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
@@ -1038,20 +1044,20 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1062,22 +1068,22 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="6"/>
@@ -1087,13 +1093,13 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
@@ -1105,25 +1111,25 @@
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
+      <c r="A21" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
@@ -1133,22 +1139,22 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
@@ -1159,11 +1165,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A23:E23"/>
@@ -1174,6 +1175,11 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/api-spec-template-simple.xlsx
+++ b/src/main/resources/templates/api-spec-template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30929E9C-B914-41BC-BE37-5DE05639FED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B15A02-F25C-4D37-A043-ADAAD2506592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>參數位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,11 +387,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${requestParameter.levelValue}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.levelValue}</t>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.sequence}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.sequence}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,29 +545,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +886,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -899,66 +899,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
@@ -968,17 +968,17 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -995,19 +995,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1018,17 +1018,17 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -1044,20 +1044,20 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1068,17 +1068,17 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="101.25" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1093,17 +1093,17 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -1111,25 +1111,25 @@
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
@@ -1139,17 +1139,17 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="99.75" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1165,6 +1165,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A23:E23"/>
@@ -1175,11 +1180,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/api-spec-template-simple.xlsx
+++ b/src/main/resources/templates/api-spec-template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B15A02-F25C-4D37-A043-ADAAD2506592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAAB57-FCBF-4A87-8BFD-2FDF71283700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -59,12 +59,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="E25")
-jx:each(items="sheetParameters" var="sheetParameter" lastCell="E25")</t>
+jx:area(lastCell="E26")
+jx:each(items="sheetParameters" var="sheetParameter" lastCell="E26")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{612DEBE9-30BD-465D-9188-520F28E0AF01}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{612DEBE9-30BD-465D-9188-520F28E0AF01}">
       <text>
         <r>
           <rPr>
@@ -84,12 +84,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="sheetParameter.showOtherParameters", lastCell="E11", areas=["A8:E11"])
+jx:if(condition="sheetParameter.showOtherParameters", lastCell="E12", areas=["A9:E12"])
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{CFF8B971-450A-4A8C-A5FA-4116F43A5EEA}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{CFF8B971-450A-4A8C-A5FA-4116F43A5EEA}">
       <text>
         <r>
           <rPr>
@@ -109,11 +109,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="sheetParameter.otherParameters" var="otherParameter" lastCell="E10")</t>
+jx:each(items="sheetParameter.otherParameters" var="otherParameter" lastCell="E11")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{AC3663D4-C346-4128-AC0A-2EC82C55A02B}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{AC3663D4-C346-4128-AC0A-2EC82C55A02B}">
       <text>
         <r>
           <rPr>
@@ -133,11 +133,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="sheetParameter.showRequestParameters", lastCell="E15", areas=["A12:E15"])</t>
+jx:if(condition="sheetParameter.showRequestParameters", lastCell="E16", areas=["A13:E16"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{CFD96F09-93DC-4C87-B8EE-5D929D6C8059}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{CFD96F09-93DC-4C87-B8EE-5D929D6C8059}">
       <text>
         <r>
           <rPr>
@@ -157,11 +157,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="sheetParameter.requestParameters" var="requestParameter" lastCell="E14")</t>
+jx:each(items="sheetParameter.requestParameters" var="requestParameter" lastCell="E15")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E910E296-CDDA-4979-9C86-CDF8763862DF}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{E910E296-CDDA-4979-9C86-CDF8763862DF}">
       <text>
         <r>
           <rPr>
@@ -181,11 +181,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="sheetParameter.showRequestExample", lastCell="E18", areas=["A16:E18"])</t>
+jx:if(condition="sheetParameter.showRequestExample", lastCell="E19", areas=["A17:E19"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{B4C3C69D-054D-4CFA-8901-E45D0CCCB068}">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{B4C3C69D-054D-4CFA-8901-E45D0CCCB068}">
       <text>
         <r>
           <rPr>
@@ -205,11 +205,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="sheetParameter.showResponseParameters", lastCell="E22", areas=["A19:E22"])</t>
+jx:if(condition="sheetParameter.showResponseParameters", lastCell="E23", areas=["A20:E23"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{CBAF0D96-97B3-4A95-B032-8634FB10DEE3}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{CBAF0D96-97B3-4A95-B032-8634FB10DEE3}">
       <text>
         <r>
           <rPr>
@@ -229,11 +229,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="sheetParameter.responseParameters" var="responseParameter" lastCell="E21")</t>
+jx:each(items="sheetParameter.responseParameters" var="responseParameter" lastCell="E22")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{56DAB17D-692F-4865-98C2-2266C7E5D606}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{56DAB17D-692F-4865-98C2-2266C7E5D606}">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:if(condition="sheetParameter.showResponseExample", lastCell="E25", areas=["A23:E25"])</t>
+jx:if(condition="sheetParameter.showResponseExample", lastCell="E26", areas=["A24:E26"])</t>
         </r>
       </text>
     </comment>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>API URI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,12 @@
   <si>
     <t>${responseParameter.sequence}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務名稱</t>
+  </si>
+  <si>
+    <t>${sheetParameter.summary}</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -514,13 +520,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,23 +594,41 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBF25E-38EB-494C-8F98-0B2C3095EFA3}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -899,287 +960,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="101.25" customHeight="1">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A24" s="13" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="99.75" customHeight="1">
+      <c r="A25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/api-spec-template-simple.xlsx
+++ b/src/main/resources/templates/api-spec-template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAAB57-FCBF-4A87-8BFD-2FDF71283700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791C562-3EB6-4D0A-854D-B36B6BAB4F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -262,147 +262,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>API URI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CONTENT-TYPE</t>
+  </si>
+  <si>
+    <t>${sheetParameter.path}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.httpMethod}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.contentType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.memo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.requestExample}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.responseExample}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${otherParameter.in}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${otherParameter.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${otherParameter.type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${otherParameter.required}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${otherParameter.description}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.description}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.required}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.description}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.type}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${requestParameter.sequence}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${responseParameter.sequence}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HTTP METHOD</t>
-  </si>
-  <si>
-    <t>CONTENT-TYPE</t>
-  </si>
-  <si>
-    <t>API資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名稱</t>
-  </si>
-  <si>
-    <t>資料型態</t>
-  </si>
-  <si>
-    <t>必要</t>
-  </si>
-  <si>
-    <t>上行電文規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上行電文範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行／回應電文規格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行／回應電文範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.path}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.httpMethod}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.contentType}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.memo}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.requestExample}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${sheetParameter.responseExample}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${otherParameter.in}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${otherParameter.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${otherParameter.type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${otherParameter.required}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${otherParameter.description}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${requestParameter.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${requestParameter.type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${requestParameter.description}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${requestParameter.required}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.description}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.type}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>參數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${requestParameter.sequence}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${responseParameter.sequence}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request body sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response body sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${sheetParameter.summary}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${sheetParameter.index}. ${sheetParameter.summary}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,19 +467,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -585,7 +599,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -603,11 +617,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -615,6 +626,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -623,12 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBF25E-38EB-494C-8F98-0B2C3095EFA3}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -959,41 +973,41 @@
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+    <row r="1" spans="1:5" ht="19.5">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1001,36 +1015,36 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
@@ -1040,46 +1054,46 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1090,46 +1104,46 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="31.5">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1140,22 +1154,22 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="A18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="6"/>
@@ -1165,43 +1179,43 @@
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
@@ -1211,22 +1225,22 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
@@ -1237,6 +1251,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A24:E24"/>
@@ -1247,11 +1266,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templates/api-spec-template-simple.xlsx
+++ b/src/main/resources/templates/api-spec-template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-01. Code\00. Pino\Java\open-api-tool\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791C562-3EB6-4D0A-854D-B36B6BAB4F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1440F623-7E4D-4A73-881D-6FDD8C6F993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C3B4C957-58BD-4660-9D4A-009DF30C1D6F}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,13 +447,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -467,19 +460,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -577,71 +580,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,298 +958,299 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" ht="99.75" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="A24:E24"/>
